--- a/2023/slovakia_2-liga_2023-2024.xlsx
+++ b/2023/slovakia_2-liga_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>D. Kubin</t>
+          <t>Povazska Bystrica</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Zilina B</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3.02</v>
+        <v>2.25</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:24</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.59</v>
+        <v>3.33</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.86</v>
+        <v>3.14</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:24</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.71</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.41</v>
+        <v>3.16</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>29/07/2023 16:51</t>
+          <t>29/07/2023 16:24</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/d-kubin-zilina/I3FmGDK2/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/povazska-bystrica-samorin/pIVTeqZm/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>FK Humenne</t>
+          <t>Spisska Nova Ves</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>Presov</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.83</v>
+        <v>4.59</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.97</v>
+        <v>5.61</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:11</t>
+          <t>29/07/2023 15:53</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.09</v>
+        <v>3.99</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.19</v>
+        <v>4.81</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:11</t>
+          <t>29/07/2023 15:53</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.37</v>
+        <v>1.46</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>29/07/2023 16:11</t>
+          <t>29/07/2023 15:53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/fk-humenne-komarno/dfEiFXZ8/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-presov/tnW4iUs2/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Spisska Nova Ves</t>
+          <t>D. Kubin</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Presov</t>
+          <t>Zilina B</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.59</v>
+        <v>3.02</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5.61</v>
+        <v>2.52</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>29/07/2023 15:53</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.99</v>
+        <v>3.59</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.81</v>
+        <v>3.86</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>29/07/2023 15:53</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>1.46</v>
+        <v>2.41</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>29/07/2023 15:53</t>
+          <t>29/07/2023 16:51</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-presov/tnW4iUs2/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/d-kubin-zilina/I3FmGDK2/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Povazska Bystrica</t>
+          <t>FK Humenne</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.83</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.3</v>
+        <v>2.97</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>29/07/2023 16:24</t>
+          <t>29/07/2023 16:11</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.33</v>
+        <v>3.09</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.14</v>
+        <v>3.19</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>29/07/2023 16:24</t>
+          <t>29/07/2023 16:11</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.71</v>
+        <v>2.28</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.16</v>
+        <v>2.37</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>29/07/2023 16:24</t>
+          <t>29/07/2023 16:11</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/povazska-bystrica-samorin/pIVTeqZm/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/fk-humenne-komarno/dfEiFXZ8/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zilina B</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Puchov</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>5</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>FK Humenne</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>3</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1796,11 +1796,11 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>06/08/2023 10:26</t>
+          <t>05/08/2023 20:15</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.98</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>06/08/2023 10:26</t>
+          <t>06/08/2023 08:33</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.08</v>
+        <v>3.23</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>06/08/2023 10:26</t>
+          <t>06/08/2023 08:33</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-fk-humenne/IVk7923m/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-msk-puchov/ChkB8MIg/</t>
         </is>
       </c>
     </row>
@@ -1861,22 +1861,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Slovan Bratislava B</t>
+          <t>Zilina B</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Petrzalka</t>
+          <t>FK Humenne</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2.53</v>
+        <v>1.88</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1884,48 +1884,48 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.82</v>
+        <v>2.02</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>06/08/2023 09:03</t>
+          <t>06/08/2023 10:26</t>
         </is>
       </c>
       <c r="N16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>04/08/2023 22:43</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>06/08/2023 10:26</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
         <v>3.29</v>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>04/08/2023 22:43</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>06/08/2023 09:03</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>04/08/2023 22:43</t>
-        </is>
-      </c>
       <c r="T16" t="n">
-        <v>2.34</v>
+        <v>3.08</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>06/08/2023 09:03</t>
+          <t>06/08/2023 10:26</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/slovan-bratislava-petrzalka/vui3Arls/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-fk-humenne/IVk7923m/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>Slovan Bratislava B</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Puchov</t>
+          <t>Petrzalka</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.89</v>
+        <v>2.53</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.02</v>
+        <v>2.82</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>05/08/2023 20:15</t>
+          <t>06/08/2023 09:03</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.55</v>
+        <v>3.29</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>06/08/2023 08:33</t>
+          <t>06/08/2023 09:03</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.39</v>
+        <v>2.41</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.23</v>
+        <v>2.34</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>06/08/2023 08:33</t>
+          <t>06/08/2023 09:03</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-msk-puchov/ChkB8MIg/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/slovan-bratislava-petrzalka/vui3Arls/</t>
         </is>
       </c>
     </row>
@@ -2045,34 +2045,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>D. Kubin</t>
+          <t>Trebisov</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Slovan Bratislava B</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:13</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.93</v>
+        <v>2.92</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:06</t>
+          <t>12/08/2023 16:54</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -2080,36 +2080,36 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:13</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:06</t>
+          <t>12/08/2023 16:54</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.96</v>
+        <v>2.35</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:13</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.72</v>
+        <v>2.24</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>12/08/2023 15:06</t>
+          <t>12/08/2023 16:54</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/d-kubin-slovan-bratislava/EHoS4vII/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/trebisov-samorin/h8pW3bXO/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>FK Humenne</t>
+          <t>Puchov</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pohronie</t>
+          <t>Povazska Bystrica</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:13</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>12/08/2023 16:19</t>
+          <t>12/08/2023 16:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:13</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.35</v>
+        <v>4.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>12/08/2023 16:19</t>
+          <t>12/08/2023 16:51</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>11/08/2023 05:12</t>
+          <t>11/08/2023 05:13</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.58</v>
+        <v>3.67</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>12/08/2023 16:19</t>
+          <t>12/08/2023 16:46</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/fk-humenne-fk-pohronie/6irK60m6/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/msk-puchov-povazska-bystrica/fDOESsAP/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Puchov</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Povazska Bystrica</t>
+          <t>L. Mikulas</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11/08/2023 05:13</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.76</v>
+        <v>1.98</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>12/08/2023 16:51</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.66</v>
+        <v>3.31</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>11/08/2023 05:13</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.31</v>
+        <v>3.43</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>12/08/2023 16:51</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.12</v>
+        <v>3.1</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>11/08/2023 05:13</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.67</v>
+        <v>3.62</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>12/08/2023 16:46</t>
+          <t>12/08/2023 16:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/msk-puchov-povazska-bystrica/fDOESsAP/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/komarno-l-mikulas/OShF7tYa/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spisska Nova Ves</t>
+          <t>FK Humenne</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,63 +2329,63 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zilina B</t>
+          <t>Pohronie</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.7</v>
+        <v>2.02</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>12/08/2023 16:43</t>
+          <t>12/08/2023 16:19</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.81</v>
+        <v>3.42</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.86</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>12/08/2023 16:27</t>
+          <t>12/08/2023 16:19</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.01</v>
+        <v>3.24</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.26</v>
+        <v>3.58</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>12/08/2023 16:43</t>
+          <t>12/08/2023 16:19</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-zilina/prsO5K2C/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/fk-humenne-fk-pohronie/6irK60m6/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>D. Kubin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L. Mikulas</t>
+          <t>Slovan Bratislava B</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 15:06</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.31</v>
+        <v>3.37</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.43</v>
+        <v>3.51</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 15:06</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>12/08/2023 08:42</t>
+          <t>11/08/2023 05:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.62</v>
+        <v>3.72</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>12/08/2023 16:59</t>
+          <t>12/08/2023 15:06</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/komarno-l-mikulas/OShF7tYa/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/d-kubin-slovan-bratislava/EHoS4vII/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trebisov</t>
+          <t>Spisska Nova Ves</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,63 +2513,63 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>Zilina B</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11/08/2023 05:13</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.92</v>
+        <v>2.7</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>12/08/2023 16:54</t>
+          <t>12/08/2023 16:43</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>3.37</v>
+        <v>3.81</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>11/08/2023 05:13</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.54</v>
+        <v>3.86</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>12/08/2023 16:54</t>
+          <t>12/08/2023 16:27</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.01</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>11/08/2023 05:13</t>
+          <t>12/08/2023 08:42</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>12/08/2023 16:54</t>
+          <t>12/08/2023 16:43</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/trebisov-samorin/h8pW3bXO/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-zilina/prsO5K2C/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>Zilina B</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Petrzalka</t>
+          <t>L. Mikulas</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>1.86</v>
+        <v>2.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.09</v>
+        <v>2.29</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 10:28</t>
+          <t>20/08/2023 10:25</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.54</v>
+        <v>3.51</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.08</v>
+        <v>3.93</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 10:28</t>
+          <t>20/08/2023 09:55</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.39</v>
+        <v>2.58</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 10:28</t>
+          <t>20/08/2023 10:25</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-petrzalka/jDHByLnt/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-l-mikulas/vuy6GyHU/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zilina B</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>L. Mikulas</t>
+          <t>Petrzalka</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.27</v>
+        <v>1.86</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.29</v>
+        <v>2.09</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 10:25</t>
+          <t>20/08/2023 10:28</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.93</v>
+        <v>4.08</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 09:55</t>
+          <t>20/08/2023 10:28</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.58</v>
+        <v>3.39</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 10:25</t>
+          <t>20/08/2023 10:28</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-l-mikulas/vuy6GyHU/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-petrzalka/jDHByLnt/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spisska Nova Ves</t>
+          <t>Presov</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Slovan Bratislava B</t>
+          <t>Zilina B</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>1.53</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>25/08/2023 07:42</t>
+          <t>25/08/2023 04:43</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.79</v>
+        <v>1.46</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>26/08/2023 16:17</t>
+          <t>26/08/2023 16:21</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.4</v>
+        <v>4.24</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>25/08/2023 07:42</t>
+          <t>25/08/2023 04:43</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.16</v>
+        <v>4.73</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>26/08/2023 16:17</t>
+          <t>26/08/2023 16:21</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.19</v>
+        <v>4.4</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>25/08/2023 07:42</t>
+          <t>25/08/2023 04:43</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.52</v>
+        <v>5.76</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>26/08/2023 16:16</t>
+          <t>26/08/2023 16:21</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-slovan-bratislava/CS5KZbHh/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/presov-zilina/U3GFzu2n/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Presov</t>
+          <t>Trebisov</t>
         </is>
       </c>
       <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Puchov</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
         <v>4</v>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Zilina B</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.53</v>
+        <v>3.11</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.46</v>
+        <v>4.12</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>26/08/2023 16:21</t>
+          <t>26/08/2023 16:29</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.24</v>
+        <v>3.49</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.73</v>
+        <v>3.82</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>26/08/2023 16:21</t>
+          <t>26/08/2023 16:29</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.4</v>
+        <v>2.01</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>5.76</v>
+        <v>1.76</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>26/08/2023 16:21</t>
+          <t>26/08/2023 16:29</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/presov-zilina/U3GFzu2n/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/trebisov-msk-puchov/Ei2yWGGH/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Trebisov</t>
+          <t>Spisska Nova Ves</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,63 +3893,63 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Puchov</t>
+          <t>Slovan Bratislava B</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>3.11</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>25/08/2023 04:43</t>
+          <t>25/08/2023 07:42</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>4.12</v>
+        <v>2.79</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>26/08/2023 16:29</t>
+          <t>26/08/2023 16:17</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.49</v>
+        <v>3.4</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>25/08/2023 04:43</t>
+          <t>25/08/2023 07:42</t>
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.82</v>
+        <v>3.16</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>26/08/2023 16:29</t>
+          <t>26/08/2023 16:17</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>2.01</v>
+        <v>2.19</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>25/08/2023 04:43</t>
+          <t>25/08/2023 07:42</t>
         </is>
       </c>
       <c r="T38" t="n">
-        <v>1.76</v>
+        <v>2.52</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>26/08/2023 16:29</t>
+          <t>26/08/2023 16:16</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/trebisov-msk-puchov/Ei2yWGGH/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-slovan-bratislava/CS5KZbHh/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Zilina B</t>
+          <t>Samorin</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Komarno</t>
+          <t>FK Humenne</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.76</v>
+        <v>2.17</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>4.16</v>
+        <v>2.29</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 10:26</t>
+          <t>03/09/2023 10:02</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.39</v>
+        <v>3.38</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>4.48</v>
+        <v>3.81</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 10:28</t>
+          <t>03/09/2023 10:02</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.24</v>
+        <v>2.87</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>1.65</v>
+        <v>2.68</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 10:26</t>
+          <t>03/09/2023 10:02</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-komarno/tUWuCGtq/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-fk-humenne/zV48UOdA/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>Zilina B</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>FK Humenne</t>
+          <t>Komarno</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>2.17</v>
+        <v>2.76</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.29</v>
+        <v>4.16</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 10:02</t>
+          <t>03/09/2023 10:26</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.81</v>
+        <v>4.48</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 10:02</t>
+          <t>03/09/2023 10:28</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.87</v>
+        <v>2.24</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.68</v>
+        <v>1.65</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 10:02</t>
+          <t>03/09/2023 10:26</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-fk-humenne/zV48UOdA/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-komarno/tUWuCGtq/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Samorin</t>
+          <t>Petrzalka</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L. Mikulas</t>
+          <t>Malzenice</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>2.93</v>
+        <v>1.34</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>3.67</v>
+        <v>1.39</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>17/09/2023 10:28</t>
+          <t>17/09/2023 10:14</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.8</v>
+        <v>4.74</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>17/09/2023 10:28</t>
+          <t>17/09/2023 10:14</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.05</v>
+        <v>6.91</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.87</v>
+        <v>7.19</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>17/09/2023 10:28</t>
+          <t>17/09/2023 10:14</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-l-mikulas/l68Apym8/</t>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/petrzalka-malzenice/MJ6IrFHK/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,807 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>Samorin</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>L. Mikulas</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:28</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:28</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>15/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>17/09/2023 10:28</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/samorin-l-mikulas/l68Apym8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>D. Kubin</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
           <t>Petrzalka</t>
         </is>
       </c>
-      <c r="G64" t="n">
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:03</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:03</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/d-kubin-petrzalka/Aqu6ZAv7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>FK Humenne</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Trebisov</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:23</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/fk-humenne-trebisov/SKk1ziP0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Komarno</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Myjava</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:26</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:26</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:15</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/komarno-myjava/t4mkwgur/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Povazska Bystrica</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>L. Mikulas</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:44</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:44</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/povazska-bystrica-l-mikulas/KfngxDfl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Presov</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Samorin</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:02</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:02</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:02</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/presov-samorin/zNAMsZWQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45192.64583333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Spisska Nova Ves</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Puchov</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:11</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:11</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:11</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/spisska-nova-ves-msk-puchov/lUjcyX9f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45193.4375</v>
+      </c>
+      <c r="F71" t="inlineStr">
         <is>
           <t>Malzenice</t>
         </is>
       </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>15/09/2023 21:43</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>17/09/2023 10:14</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>15/09/2023 21:43</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>17/09/2023 10:14</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>15/09/2023 21:43</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>7.19</v>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>17/09/2023 10:14</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/slovakia/2-liga/petrzalka-malzenice/MJ6IrFHK/</t>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Pohronie</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:15</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:26</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/malzenice-fk-pohronie/zNWicEWD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>slovakia</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2-liga</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45193.4375</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Zilina B</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava B</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:21</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:21</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>22/09/2023 21:43</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>24/09/2023 10:21</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/slovakia/2-liga/zilina-slovan-bratislava/MJrAYUgD/</t>
         </is>
       </c>
     </row>
